--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Unlocking takeoff restrictions not recommended</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>17-21</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,31 +1247,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>2-14</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,12 +1346,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>22-30</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1360,36 +1360,6 @@
         </is>
       </c>
       <c r="F31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>6</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Move away from sources of interference before attempting flight</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>22-30</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/correct_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-40_remove/rem5/17/correct_predictions_17.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -827,21 +827,21 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>GPS signal low Aircraft unable to auto hover and takeoff restricted Move to environment with adequate light Unlocking takeoff restrictions not recommended .</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Downward ambient light too low</t>
+          <t>Unlocking takeoff restrictions not recommended</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>17-21</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -866,22 +866,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Backward obstacle avoidance unavailable</t>
+          <t>Downward ambient light too low</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>16-19</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -896,12 +896,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>24-26</t>
+          <t>16-19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -926,12 +926,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>20-23</t>
+          <t>24-26</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -956,12 +956,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>8-10</t>
+          <t>20-23</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -986,12 +986,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Obstacle avoidance unavailable</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>5-7</t>
+          <t>8-10</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -1016,52 +1016,52 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Obstacle avoidance unavailable</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>11-15</t>
+          <t>5-7</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
+          <t>Downward ambient light too low Obstacle avoidance unavailable Fly with caution Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Fly with caution</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>13-15</t>
+          <t>11-15</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1076,12 +1076,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Only infrared sensors available</t>
+          <t>Fly with caution</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>9-12</t>
+          <t>13-15</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -1106,52 +1106,52 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Backward ambient light too low</t>
+          <t>Only infrared sensors available</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0-4</t>
+          <t>9-12</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
+          <t>Backward ambient light too low Backward obstacle avoidance unavailable Only infrared sensors available Fly with caution .</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Land or return to home promptly</t>
+          <t>Backward ambient light too low</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-4</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1166,22 +1166,22 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Motor speed error</t>
+          <t>Land or return to home promptly</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1196,22 +1196,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>If the issue persists, contact DJI Support</t>
+          <t>Motor speed error</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>21-27</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
+          <t>If the issue persists, contact DJI Support</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>9-20</t>
+          <t>21-27</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -1247,31 +1247,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+          <t>Motor speed error Land or return to home promptly After powering off the aircraft, replace the propeller on the beeping ESC If the issue persists, contact DJI Support .</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Compass abnormal</t>
+          <t>After powering off the aircraft, replace the propeller on the beeping ESC</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>9-20</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>NonEvent</t>
         </is>
       </c>
     </row>
@@ -1286,22 +1286,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>The ground or walls may contain metal</t>
+          <t>Compass abnormal</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>15-21</t>
+          <t>0-1</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>Event</t>
         </is>
       </c>
     </row>
@@ -1316,12 +1316,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+          <t>The ground or walls may contain metal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-14</t>
+          <t>15-21</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -1346,20 +1346,50 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>Solution: 1. Ensure there are no magnets or metal objects near the aircraft</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2-14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>6</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Compass abnormal Solution: 1. Ensure there are no magnets or metal objects near the aircraft The ground or walls may contain metal Move away from sources of interference before attempting flight 2. Calibrate Compass Before Takeoff .</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>Move away from sources of interference before attempting flight</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>22-30</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
         <is>
           <t>NonEvent</t>
         </is>
